--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -716,7 +716,7 @@
     <t>Provider number for this practitioner role.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -716,7 +716,7 @@
     <t>Provider number for this practitioner role.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -716,7 +716,7 @@
     <t>Provider number for this practitioner role.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -383,13 +383,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>medicareProviderNumber</t>
-  </si>
-  <si>
-    <t>Australian Medicare Provider Number</t>
-  </si>
-  <si>
-    <t>Medicare provider number for this practitioner role.</t>
+    <t>providerNumber</t>
+  </si>
+  <si>
+    <t>Australian Provider Number</t>
+  </si>
+  <si>
+    <t>Provider number for this practitioner role.</t>
   </si>
   <si>
     <t>PractitionerRole.identifier.id</t>
@@ -711,9 +711,6 @@
   </si>
   <si>
     <t>Medicare provider number</t>
-  </si>
-  <si>
-    <t>Provider number for this practitioner role.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
@@ -1126,10 +1123,13 @@
     <t>SNOMED CT Practitioner Specialty</t>
   </si>
   <si>
-    <t>Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
+    <t xml:space="preserve"> Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
   </si>
   <si>
     <t>SNOMED CT Practitioner Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://healthterminologies.gov.au/fhir/ValueSet/practitioner-role-1 </t>
   </si>
   <si>
     <t>PractitionerRole.specialty.text</t>
@@ -1528,7 +1528,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="47.9765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.12109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4694,10 +4694,10 @@
         <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4711,64 +4711,64 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4799,13 +4799,13 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4856,28 +4856,28 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4908,16 +4908,16 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4967,28 +4967,28 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4999,7 +4999,7 @@
         <v>106</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
@@ -5024,10 +5024,10 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
@@ -5468,10 +5468,10 @@
         <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>145</v>
@@ -5804,7 +5804,7 @@
         <v>155</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>157</v>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>40</v>
@@ -6696,7 +6696,7 @@
         <v>205</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>207</v>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
@@ -6806,10 +6806,10 @@
         <v>64</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>40</v>
@@ -6917,13 +6917,13 @@
         <v>121</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6937,64 +6937,64 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="T49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE49" t="s" s="2">
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7025,13 +7025,13 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7082,28 +7082,28 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7134,16 +7134,16 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7193,28 +7193,28 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7225,7 +7225,7 @@
         <v>106</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>40</v>
@@ -7250,10 +7250,10 @@
         <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
@@ -7694,10 +7694,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>145</v>
@@ -8030,7 +8030,7 @@
         <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>157</v>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8922,7 +8922,7 @@
         <v>205</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>207</v>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>40</v>
@@ -9032,10 +9032,10 @@
         <v>64</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
@@ -9143,13 +9143,13 @@
         <v>121</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9163,64 +9163,64 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="AK69" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9251,13 +9251,13 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9308,28 +9308,28 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9360,16 +9360,16 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9419,28 +9419,28 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="AK71" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9448,7 +9448,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9557,7 +9557,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9668,7 +9668,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9694,13 +9694,13 @@
         <v>121</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9750,16 +9750,16 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9805,13 +9805,13 @@
         <v>107</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9861,25 +9861,25 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9890,7 +9890,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9916,13 +9916,13 @@
         <v>121</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9972,7 +9972,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10027,19 +10027,19 @@
         <v>196</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10085,7 +10085,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10100,21 +10100,21 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10137,17 +10137,17 @@
         <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10196,7 +10196,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10211,21 +10211,21 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10248,13 +10248,13 @@
         <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10305,7 +10305,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10323,7 +10323,7 @@
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10357,13 +10357,13 @@
         <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10414,7 +10414,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10432,7 +10432,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10469,16 +10469,16 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10503,14 +10503,14 @@
         <v>40</v>
       </c>
       <c r="W81" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="X81" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="X81" t="s" s="2">
+      <c r="Y81" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10542,13 +10542,13 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK81" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AL81" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10665,7 +10665,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10776,7 +10776,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10805,7 +10805,7 @@
         <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>157</v>
@@ -10848,7 +10848,7 @@
         <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
@@ -10887,10 +10887,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>40</v>
@@ -10915,10 +10915,10 @@
         <v>154</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>157</v>
@@ -10952,10 +10952,10 @@
         <v>136</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -11002,10 +11002,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>40</v>
@@ -11030,10 +11030,10 @@
         <v>154</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>157</v>
@@ -11067,10 +11067,10 @@
         <v>136</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>40</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11146,7 +11146,7 @@
         <v>205</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>207</v>
@@ -11230,7 +11230,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11256,10 +11256,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11286,14 +11286,14 @@
         <v>40</v>
       </c>
       <c r="W88" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="X88" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="X88" t="s" s="2">
+      <c r="Y88" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>40</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11325,13 +11325,13 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11448,7 +11448,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11559,7 +11559,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11585,10 +11585,10 @@
         <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>157</v>
@@ -11631,7 +11631,7 @@
         <v>40</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
@@ -11670,10 +11670,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>40</v>
@@ -11698,10 +11698,10 @@
         <v>154</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>157</v>
@@ -11735,10 +11735,10 @@
         <v>136</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>40</v>
@@ -11814,7 +11814,7 @@
         <v>205</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>207</v>
@@ -13681,7 +13681,7 @@
         <v>40</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>420</v>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="430">
   <si>
     <t>Path</t>
   </si>
@@ -364,8 +364,8 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t>pattern:type}
-value:system}</t>
+    <t>value:system}
+value:type}</t>
   </si>
   <si>
     <t>open</t>
@@ -477,14 +477,6 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org.au/fhir/v2/0203"/&gt;
-    &lt;code value="UPIN"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Local identifier type</t>
   </si>
   <si>
@@ -513,7 +505,7 @@
     <t>Code defined by a terminology system</t>
   </si>
   <si>
-    <t>A reference to a code defined by a terminology system.</t>
+    <t>Provider number identifier type coding.</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
@@ -531,6 +523,133 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
+    <t>PractitionerRole.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/v2/0203"/&gt;</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="UPIN"/&gt;</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>PractitionerRole.identifier.type.text</t>
   </si>
   <si>
@@ -597,7 +716,7 @@
     <t>Provider number for this practitioner role.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
@@ -683,12 +802,10 @@
     <t>Identifier type provider at organisation identifier for this practitioner role.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org.au/fhir/v2/0203"/&gt;
-    &lt;code value="NPIO"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="NPIO"/&gt;</t>
   </si>
   <si>
     <t>National provider at organisation identifer (NPI-O) type descriptive text.</t>
@@ -731,12 +848,10 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
-    &lt;code value="EI"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/v2/0203"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="EI"/&gt;</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
@@ -818,10 +933,6 @@
   </si>
   <si>
     <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use</t>
@@ -1384,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1393,7 +1504,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3150,7 +3261,7 @@
         <v>40</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>40</v>
@@ -3168,43 +3279,43 @@
         <v>136</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>140</v>
@@ -3218,7 +3329,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3327,7 +3438,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3438,7 +3549,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3449,7 +3560,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3461,19 +3572,19 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3522,7 +3633,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3537,10 +3648,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3551,7 +3662,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3571,29 +3682,25 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>40</v>
@@ -3635,7 +3742,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3650,10 +3757,10 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3664,18 +3771,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3684,33 +3791,33 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>40</v>
@@ -3734,25 +3841,25 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3761,13 +3868,13 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3775,7 +3882,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3798,30 +3905,32 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -3857,7 +3966,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3872,13 +3981,13 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3886,7 +3995,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3909,15 +4018,17 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3966,7 +4077,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3981,13 +4092,13 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3995,7 +4106,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4003,7 +4114,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
@@ -4018,24 +4129,24 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>40</v>
@@ -4077,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4092,13 +4203,13 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4106,11 +4217,9 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4119,7 +4228,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4131,17 +4240,17 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4190,13 +4299,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4205,21 +4314,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4239,19 +4348,23 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4299,7 +4412,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4314,10 +4427,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4328,18 +4441,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4348,27 +4461,29 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4398,25 +4513,25 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4425,10 +4540,10 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4439,7 +4554,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4447,7 +4562,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4456,38 +4571,36 @@
         <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>40</v>
@@ -4499,13 +4612,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4523,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4538,13 +4651,13 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4552,7 +4665,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4560,7 +4673,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4575,20 +4688,18 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4597,10 +4708,10 @@
         <v>40</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -4612,13 +4723,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4636,7 +4747,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4651,13 +4762,13 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4665,7 +4776,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4685,16 +4796,16 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4745,7 +4856,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4760,13 +4871,13 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4774,18 +4885,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4794,19 +4905,19 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4844,25 +4955,25 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4871,13 +4982,13 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4885,9 +4996,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4908,19 +5021,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4969,7 +5080,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4984,21 +5095,21 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5018,29 +5129,25 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5082,7 +5189,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5097,10 +5204,10 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5111,18 +5218,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5131,33 +5238,33 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>40</v>
@@ -5181,25 +5288,25 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5208,13 +5315,13 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5222,7 +5329,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5230,7 +5337,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5239,24 +5346,26 @@
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5268,7 +5377,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -5280,13 +5389,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5304,7 +5413,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5316,16 +5425,16 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5333,7 +5442,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5356,16 +5465,20 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5389,13 +5502,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5413,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5428,13 +5541,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5442,7 +5555,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5462,20 +5575,18 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5524,7 +5635,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5539,13 +5650,13 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5553,13 +5664,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5575,21 +5684,21 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5625,19 +5734,19 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5652,21 +5761,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5686,19 +5795,23 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5746,13 +5859,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5761,10 +5874,10 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5775,18 +5888,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5798,17 +5911,15 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5845,25 +5956,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5886,43 +5997,41 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5946,37 +6055,37 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5985,10 +6094,10 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5999,7 +6108,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6022,29 +6131,29 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>40</v>
@@ -6059,13 +6168,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6083,7 +6192,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6098,10 +6207,10 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -6112,7 +6221,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6132,18 +6241,20 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6192,7 +6303,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6207,10 +6318,10 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6221,18 +6332,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6241,27 +6352,27 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>40</v>
@@ -6291,25 +6402,25 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6318,10 +6429,10 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6332,7 +6443,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6343,7 +6454,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6355,19 +6466,17 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6416,13 +6525,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6431,10 +6540,10 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6445,7 +6554,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6453,7 +6562,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6468,26 +6577,26 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>40</v>
@@ -6529,7 +6638,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6544,10 +6653,10 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6558,7 +6667,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6581,30 +6690,32 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6640,7 +6751,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6655,13 +6766,13 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6669,7 +6780,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6692,30 +6803,30 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6751,7 +6862,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6766,13 +6877,13 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6780,7 +6891,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6788,7 +6899,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -6803,15 +6914,17 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6824,7 +6937,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -6860,7 +6973,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6872,16 +6985,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6889,7 +7002,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6897,7 +7010,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -6912,17 +7025,15 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6971,7 +7082,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6986,13 +7097,13 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7000,7 +7111,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7020,18 +7131,20 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7080,7 +7193,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7095,13 +7208,13 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7109,11 +7222,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="C52" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7129,21 +7244,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7179,19 +7294,19 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7206,21 +7321,21 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7240,20 +7355,18 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7302,7 +7415,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7311,7 +7424,7 @@
         <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
@@ -7320,7 +7433,7 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7331,18 +7444,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7351,19 +7464,19 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7401,25 +7514,25 @@
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7431,7 +7544,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7442,7 +7555,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7450,7 +7563,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7459,24 +7572,26 @@
         <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7500,13 +7615,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7524,7 +7639,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7539,10 +7654,10 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7551,9 +7666,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7561,13 +7676,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7576,22 +7691,22 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -7613,13 +7728,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7637,7 +7752,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7652,21 +7767,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7680,27 +7795,25 @@
         <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7748,7 +7861,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7763,52 +7876,54 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7845,25 +7960,25 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7875,7 +7990,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7884,9 +7999,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7894,13 +8009,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -7909,16 +8024,20 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7966,13 +8085,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7981,10 +8100,10 @@
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7993,9 +8112,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8006,32 +8125,28 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8055,13 +8170,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8079,13 +8194,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8094,13 +8209,13 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8108,18 +8223,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>291</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8131,15 +8246,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8176,25 +8293,25 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8217,18 +8334,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8237,27 +8354,29 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -8287,25 +8406,25 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8314,10 +8433,10 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8328,7 +8447,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8339,7 +8458,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8351,20 +8470,18 @@
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8400,23 +8517,25 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AB63" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8425,10 +8544,10 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8439,17 +8558,15 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
@@ -8464,26 +8581,24 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8501,13 +8616,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8525,13 +8640,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8540,10 +8655,10 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8554,11 +8669,9 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8579,19 +8692,17 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8616,13 +8727,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8640,13 +8751,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8655,10 +8766,10 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8669,7 +8780,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8692,19 +8803,19 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8753,7 +8864,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8768,10 +8879,10 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8780,9 +8891,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8790,13 +8901,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -8805,22 +8916,26 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>40</v>
@@ -8838,13 +8953,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8862,13 +8977,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8877,13 +8992,13 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8891,7 +9006,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8911,19 +9026,21 @@
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8935,7 +9052,7 @@
         <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>40</v>
@@ -8971,7 +9088,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8986,13 +9103,13 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -9000,18 +9117,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -9020,19 +9137,19 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9046,7 +9163,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9070,25 +9187,25 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9097,13 +9214,13 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9111,7 +9228,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9122,7 +9239,7 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9134,20 +9251,16 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9183,23 +9296,25 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9208,13 +9323,13 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9222,20 +9337,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9247,20 +9360,18 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9284,13 +9395,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9308,13 +9419,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9323,13 +9434,13 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9337,7 +9448,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9357,23 +9468,19 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9421,7 +9528,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9436,10 +9543,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9448,13 +9555,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9464,24 +9571,26 @@
         <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>321</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9518,19 +9627,19 @@
         <v>40</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9548,18 +9657,18 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9570,27 +9679,29 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>328</v>
+        <v>121</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9639,25 +9750,25 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9666,9 +9777,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9679,10 +9790,10 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9691,18 +9802,18 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9750,13 +9861,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9768,7 +9879,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9777,9 +9888,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9787,31 +9898,31 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>340</v>
+        <v>121</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9861,25 +9972,25 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9888,9 +9999,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9904,27 +10015,31 @@
         <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O77" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -9970,7 +10085,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9985,55 +10100,55 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10081,13 +10196,13 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
@@ -10096,54 +10211,52 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10192,13 +10305,13 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
@@ -10210,7 +10323,7 @@
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10221,7 +10334,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10232,7 +10345,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>52</v>
@@ -10241,16 +10354,16 @@
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10277,13 +10390,13 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10301,13 +10414,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10319,7 +10432,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10330,7 +10443,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10341,7 +10454,7 @@
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>52</v>
@@ -10350,19 +10463,23 @@
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10386,13 +10503,13 @@
         <v>40</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>40</v>
@@ -10410,13 +10527,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10425,21 +10542,21 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10453,7 +10570,7 @@
         <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
@@ -10462,17 +10579,15 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>361</v>
+        <v>121</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>362</v>
+        <v>122</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10521,7 +10636,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>360</v>
+        <v>124</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10539,7 +10654,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>345</v>
+        <v>125</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10548,23 +10663,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -10573,16 +10688,16 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>361</v>
+        <v>97</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>366</v>
+        <v>98</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10620,25 +10735,25 @@
         <v>40</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
@@ -10650,7 +10765,7 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>345</v>
+        <v>125</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10659,9 +10774,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10675,25 +10790,29 @@
         <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -10729,19 +10848,17 @@
         <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>368</v>
+        <v>159</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10753,13 +10870,13 @@
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10770,9 +10887,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10790,19 +10909,23 @@
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>122</v>
+        <v>338</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10826,13 +10949,13 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -10850,13 +10973,13 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
@@ -10865,10 +10988,10 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10879,18 +11002,20 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="C86" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10899,21 +11024,23 @@
         <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>127</v>
+        <v>325</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -10937,13 +11064,13 @@
         <v>40</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>40</v>
@@ -10961,7 +11088,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10976,10 +11103,10 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
@@ -10990,41 +11117,43 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
       </c>
@@ -11072,13 +11201,13 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>351</v>
+        <v>210</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11087,10 +11216,10 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
@@ -11101,7 +11230,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11109,10 +11238,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>52</v>
@@ -11121,16 +11250,16 @@
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11157,13 +11286,13 @@
         <v>40</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>40</v>
@@ -11181,13 +11310,13 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>40</v>
@@ -11196,21 +11325,21 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11224,7 +11353,7 @@
         <v>51</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>40</v>
@@ -11233,13 +11362,13 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>378</v>
+        <v>122</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>379</v>
+        <v>123</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11290,7 +11419,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>377</v>
+        <v>124</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11308,7 +11437,7 @@
         <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>345</v>
+        <v>125</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
@@ -11317,23 +11446,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>40</v>
@@ -11342,15 +11471,17 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>381</v>
+        <v>98</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11387,25 +11518,25 @@
         <v>40</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>40</v>
@@ -11417,7 +11548,7 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>345</v>
+        <v>125</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
@@ -11428,7 +11559,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11448,20 +11579,22 @@
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>384</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N91" t="s" s="2">
-        <v>387</v>
+        <v>158</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11498,19 +11631,17 @@
         <v>40</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>383</v>
+        <v>159</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11525,20 +11656,2337 @@
         <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM112" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM91">
+  <autoFilter ref="A1:AM112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11548,7 +13996,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
   <si>
     <t>Path</t>
   </si>
@@ -982,12 +982,6 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>Specific specialty associated with the agency</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -995,33 +989,6 @@
   </si>
   <si>
     <t>./Specialty</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding</t>
-  </si>
-  <si>
-    <t>Specialty codings for a role</t>
-  </si>
-  <si>
-    <t>snomedctSpecialty</t>
-  </si>
-  <si>
-    <t>SNOMED CT Practitioner Specialty</t>
-  </si>
-  <si>
-    <t>Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
-  </si>
-  <si>
-    <t>SNOMED CT Practitioner Role</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.text</t>
   </si>
   <si>
     <t>PractitionerRole.location</t>
@@ -1384,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3113,7 +3080,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -4560,7 +4527,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -6566,7 +6533,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -8840,11 +8807,9 @@
       <c r="W67" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="X67" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8877,21 +8842,21 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8902,25 +8867,25 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>121</v>
+        <v>310</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8971,13 +8936,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8989,22 +8954,22 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9014,7 +8979,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -9023,17 +8988,15 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9070,19 +9033,19 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9097,10 +9060,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9109,9 +9072,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9125,7 +9088,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9134,19 +9097,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9183,17 +9144,19 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9208,10 +9171,10 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>162</v>
+        <v>327</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9220,13 +9183,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9238,29 +9199,27 @@
         <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9284,13 +9243,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9308,7 +9267,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9320,13 +9279,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>162</v>
+        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9337,7 +9296,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9357,23 +9316,19 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9421,7 +9376,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9436,10 +9391,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9448,13 +9403,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9464,24 +9419,26 @@
         <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>321</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9530,7 +9487,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9548,22 +9505,22 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9573,24 +9530,26 @@
         <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>328</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>329</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9639,7 +9598,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9654,10 +9613,10 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9668,7 +9627,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9688,21 +9647,19 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>334</v>
+        <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9726,13 +9683,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9750,7 +9707,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9768,7 +9725,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9779,7 +9736,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9790,7 +9747,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>52</v>
@@ -9802,17 +9759,15 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9861,25 +9816,25 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9888,9 +9843,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9904,7 +9859,7 @@
         <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -9913,15 +9868,17 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>122</v>
+        <v>351</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9970,7 +9927,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9988,7 +9945,7 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9997,23 +9954,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
@@ -10022,16 +9979,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10081,13 +10038,13 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
@@ -10099,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10108,13 +10065,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10124,26 +10081,24 @@
         <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10192,7 +10147,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10204,13 +10159,13 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10219,9 +10174,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10232,10 +10187,10 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -10244,13 +10199,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>353</v>
+        <v>122</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>354</v>
+        <v>123</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10277,13 +10232,13 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10301,13 +10256,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>352</v>
+        <v>124</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10319,7 +10274,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>345</v>
+        <v>125</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10328,23 +10283,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -10353,15 +10308,17 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10410,13 +10367,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10428,7 +10385,7 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>345</v>
+        <v>125</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10437,41 +10394,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>361</v>
+        <v>97</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10521,13 +10478,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10539,7 +10496,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10550,7 +10507,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10558,7 +10515,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -10573,17 +10530,15 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>361</v>
+        <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10632,10 +10587,10 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>51</v>
@@ -10650,7 +10605,7 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>345</v>
+        <v>125</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10661,7 +10616,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10672,7 +10627,7 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>52</v>
@@ -10684,13 +10639,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10741,25 +10696,25 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10768,9 +10723,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10784,7 +10739,7 @@
         <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
@@ -10796,10 +10751,10 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>122</v>
+        <v>370</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>123</v>
+        <v>371</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10850,7 +10805,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10868,7 +10823,7 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10883,7 +10838,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10902,18 +10857,18 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>97</v>
+        <v>373</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -10961,7 +10916,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10988,557 +10943,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM91">
+  <autoFilter ref="A1:AM86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11548,7 +10954,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="387">
   <si>
     <t>Path</t>
   </si>
@@ -988,6 +988,10 @@
     <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">value:coding}
+</t>
+  </si>
+  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -997,6 +1001,16 @@
     <t>./Specialty</t>
   </si>
   <si>
+    <t>snomedctSpecialty</t>
+  </si>
+  <si>
+    <t>SNOMED-CT Practitioner Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
+  </si>
+  <si>
     <t>PractitionerRole.specialty.id</t>
   </si>
   <si>
@@ -1004,21 +1018,6 @@
   </si>
   <si>
     <t>PractitionerRole.specialty.coding</t>
-  </si>
-  <si>
-    <t>Specialty codings for a role</t>
-  </si>
-  <si>
-    <t>snomedctSpecialty</t>
-  </si>
-  <si>
-    <t>SNOMED CT Practitioner Specialty</t>
-  </si>
-  <si>
-    <t>Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
-  </si>
-  <si>
-    <t>SNOMED CT Practitioner Role</t>
   </si>
   <si>
     <t>PractitionerRole.specialty.text</t>
@@ -3113,7 +3112,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -4560,7 +4559,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -6566,7 +6565,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -8780,7 +8779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>302</v>
       </c>
@@ -8850,16 +8849,14 @@
         <v>40</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>302</v>
@@ -8877,13 +8874,13 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8891,9 +8888,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8911,16 +8910,16 @@
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>122</v>
+        <v>313</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8947,13 +8946,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -8971,13 +8970,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8986,13 +8985,13 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -9000,18 +8999,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -9023,17 +9022,15 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9070,25 +9067,25 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9111,11 +9108,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9131,23 +9128,21 @@
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9183,9 +9178,11 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9193,7 +9190,7 @@
         <v>112</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9208,10 +9205,10 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9222,20 +9219,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9250,10 +9245,10 @@
         <v>155</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>317</v>
+        <v>157</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>158</v>
@@ -9286,9 +9281,7 @@
       <c r="W71" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X71" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
         <v>300</v>
       </c>
@@ -9337,7 +9330,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9450,7 +9443,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9473,13 +9466,13 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9530,7 +9523,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9548,18 +9541,18 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9582,13 +9575,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9639,7 +9632,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9654,10 +9647,10 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9668,7 +9661,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9691,17 +9684,17 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9750,7 +9743,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9768,7 +9761,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9779,7 +9772,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9802,16 +9795,16 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9861,7 +9854,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9873,13 +9866,13 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9890,7 +9883,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9999,7 +9992,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10110,11 +10103,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10139,7 +10132,7 @@
         <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>100</v>
@@ -10192,7 +10185,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10221,7 +10214,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10247,10 +10240,10 @@
         <v>70</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10280,11 +10273,11 @@
         <v>136</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10301,7 +10294,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10319,7 +10312,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10330,7 +10323,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10356,10 +10349,10 @@
         <v>254</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10410,7 +10403,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10428,7 +10421,7 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10439,7 +10432,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10462,16 +10455,16 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10521,7 +10514,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10539,7 +10532,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10550,7 +10543,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10573,16 +10566,16 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10632,7 +10625,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10650,7 +10643,7 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10661,7 +10654,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10684,13 +10677,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10741,7 +10734,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10753,13 +10746,13 @@
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10770,7 +10763,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10879,7 +10872,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10990,11 +10983,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11019,7 +11012,7 @@
         <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>100</v>
@@ -11072,7 +11065,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11101,7 +11094,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11127,10 +11120,10 @@
         <v>121</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11181,7 +11174,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>51</v>
@@ -11210,7 +11203,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11236,10 +11229,10 @@
         <v>192</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11290,7 +11283,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11308,7 +11301,7 @@
         <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
@@ -11319,7 +11312,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11345,10 +11338,10 @@
         <v>121</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11399,7 +11392,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11417,7 +11410,7 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
@@ -11428,7 +11421,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11451,17 +11444,17 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11510,7 +11503,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
   <si>
     <t>Path</t>
   </si>
@@ -364,8 +364,8 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t>value:system}
-value:type}</t>
+    <t>pattern:type}
+value:system}</t>
   </si>
   <si>
     <t>open</t>
@@ -477,6 +477,14 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org.au/fhir/v2/0203"/&gt;
+    &lt;code value="UPIN"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Local identifier type</t>
   </si>
   <si>
@@ -505,7 +513,7 @@
     <t>Code defined by a terminology system</t>
   </si>
   <si>
-    <t>Provider number identifier type coding.</t>
+    <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
@@ -523,133 +531,6 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>PractitionerRole.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/v2/0203"/&gt;</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="UPIN"/&gt;</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
     <t>PractitionerRole.identifier.type.text</t>
   </si>
   <si>
@@ -716,7 +597,7 @@
     <t>Provider number for this practitioner role.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
@@ -802,10 +683,12 @@
     <t>Identifier type provider at organisation identifier for this practitioner role.</t>
   </si>
   <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="NPIO"/&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org.au/fhir/v2/0203"/&gt;
+    &lt;code value="NPIO"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>National provider at organisation identifer (NPI-O) type descriptive text.</t>
@@ -848,10 +731,12 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/v2/0203"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="EI"/&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/v2/0203"/&gt;
+    &lt;code value="EI"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
@@ -935,6 +820,10 @@
     <t>PractitionerRole.active</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Whether this practitioner's record is in active use</t>
   </si>
   <si>
@@ -1093,12 +982,6 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>Specific specialty associated with the agency</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -1106,33 +989,6 @@
   </si>
   <si>
     <t>./Specialty</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding</t>
-  </si>
-  <si>
-    <t>Specialty codings for a role</t>
-  </si>
-  <si>
-    <t>snomedctSpecialty</t>
-  </si>
-  <si>
-    <t>SNOMED CT Practitioner Specialty</t>
-  </si>
-  <si>
-    <t>Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
-  </si>
-  <si>
-    <t>SNOMED CT Practitioner Role</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.text</t>
   </si>
   <si>
     <t>PractitionerRole.location</t>
@@ -1495,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1504,7 +1360,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3224,7 +3080,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -3261,7 +3117,7 @@
         <v>40</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>40</v>
@@ -3279,10 +3135,10 @@
         <v>136</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3300,7 +3156,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3315,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>140</v>
@@ -3329,7 +3185,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3438,7 +3294,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3549,7 +3405,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3560,7 +3416,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3572,19 +3428,19 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3633,7 +3489,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3648,10 +3504,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3662,7 +3518,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3682,25 +3538,29 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>40</v>
@@ -3742,7 +3602,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3757,10 +3617,10 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3771,18 +3631,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3791,33 +3651,33 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>40</v>
@@ -3841,25 +3701,25 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3868,13 +3728,13 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3882,7 +3742,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3905,32 +3765,30 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -3966,7 +3824,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3981,13 +3839,13 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3995,7 +3853,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4018,17 +3876,15 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -4077,7 +3933,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4092,13 +3948,13 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -4106,7 +3962,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4114,7 +3970,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
@@ -4129,24 +3985,24 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>40</v>
@@ -4188,7 +4044,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4203,13 +4059,13 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4217,9 +4073,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4228,7 +4086,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4240,17 +4098,17 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4299,13 +4157,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4314,21 +4172,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4348,23 +4206,19 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4412,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4427,10 +4281,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4441,18 +4295,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4461,29 +4315,27 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4513,25 +4365,25 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4540,10 +4392,10 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4554,7 +4406,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4562,7 +4414,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4571,36 +4423,38 @@
         <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>40</v>
@@ -4612,13 +4466,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4636,7 +4490,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4651,13 +4505,13 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4665,7 +4519,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4688,18 +4542,20 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4708,10 +4564,10 @@
         <v>40</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -4723,13 +4579,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4747,7 +4603,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4762,13 +4618,13 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4776,7 +4632,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4796,16 +4652,16 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4856,7 +4712,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4871,13 +4727,13 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4885,18 +4741,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4905,19 +4761,19 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4955,25 +4811,25 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4982,13 +4838,13 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4996,11 +4852,9 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5021,17 +4875,19 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5080,7 +4936,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5095,21 +4951,21 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5129,25 +4985,29 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5189,7 +5049,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5204,10 +5064,10 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5218,18 +5078,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5238,33 +5098,33 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>40</v>
@@ -5288,25 +5148,25 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5315,13 +5175,13 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5329,7 +5189,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5337,7 +5197,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5346,26 +5206,24 @@
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5377,7 +5235,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -5389,13 +5247,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5413,7 +5271,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5425,16 +5283,16 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5442,7 +5300,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5465,20 +5323,16 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5502,13 +5356,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5526,7 +5380,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5541,13 +5395,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5555,7 +5409,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5575,18 +5429,20 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5635,7 +5491,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5650,13 +5506,13 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5664,11 +5520,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5684,21 +5542,21 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5734,19 +5592,19 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5761,21 +5619,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5795,23 +5653,19 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5859,13 +5713,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5874,10 +5728,10 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5888,18 +5742,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5911,15 +5765,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5956,25 +5812,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5997,41 +5853,43 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6055,37 +5913,37 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -6094,10 +5952,10 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -6108,7 +5966,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6131,29 +5989,29 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>40</v>
@@ -6168,13 +6026,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6192,7 +6050,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6207,10 +6065,10 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -6221,7 +6079,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6241,20 +6099,18 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6303,7 +6159,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6318,10 +6174,10 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6332,18 +6188,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6352,27 +6208,27 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>40</v>
@@ -6402,25 +6258,25 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6429,10 +6285,10 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6443,7 +6299,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6454,7 +6310,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6466,17 +6322,19 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6525,13 +6383,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6540,10 +6398,10 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6554,7 +6412,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6562,7 +6420,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6577,26 +6435,26 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>40</v>
@@ -6638,7 +6496,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6653,10 +6511,10 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6667,7 +6525,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6675,7 +6533,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -6690,32 +6548,30 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6751,7 +6607,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6766,13 +6622,13 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6780,7 +6636,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6803,30 +6659,30 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6862,7 +6718,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6877,13 +6733,13 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6891,7 +6747,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6899,7 +6755,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -6914,17 +6770,15 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6937,7 +6791,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -6973,7 +6827,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6985,16 +6839,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -7002,7 +6856,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7010,7 +6864,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -7025,15 +6879,17 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -7082,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7097,13 +6953,13 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7111,7 +6967,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7131,20 +6987,18 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7193,7 +7047,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>245</v>
+        <v>124</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7208,13 +7062,13 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7222,13 +7076,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7244,21 +7096,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7294,19 +7146,19 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7321,21 +7173,21 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7355,18 +7207,20 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7415,7 +7269,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7424,7 +7278,7 @@
         <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
@@ -7433,7 +7287,7 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7444,18 +7298,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7464,19 +7318,19 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7514,25 +7368,25 @@
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7544,7 +7398,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7555,7 +7409,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7563,7 +7417,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7572,26 +7426,24 @@
         <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7615,13 +7467,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7639,7 +7491,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7654,11 +7506,11 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7666,9 +7518,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7676,13 +7528,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7691,22 +7543,22 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -7728,13 +7580,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7752,7 +7604,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7767,21 +7619,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7795,25 +7647,27 @@
         <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7861,7 +7715,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7876,54 +7730,52 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7960,25 +7812,25 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7990,7 +7842,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7999,9 +7851,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8009,13 +7861,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -8024,20 +7876,16 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8085,13 +7933,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -8100,10 +7948,10 @@
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -8112,9 +7960,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8125,28 +7973,32 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8170,13 +8022,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8194,13 +8046,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8209,13 +8061,13 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8223,18 +8075,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8246,17 +8098,15 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8293,25 +8143,25 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8334,18 +8184,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8354,29 +8204,27 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -8406,25 +8254,25 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8433,10 +8281,10 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8447,7 +8295,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8458,7 +8306,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8470,18 +8318,20 @@
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8517,25 +8367,23 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8544,10 +8392,10 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8558,15 +8406,17 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
@@ -8581,24 +8431,26 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8616,13 +8468,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8640,13 +8492,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8655,10 +8507,10 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8669,9 +8521,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8692,17 +8546,19 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8727,13 +8583,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8751,13 +8607,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8766,10 +8622,10 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8780,7 +8636,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8803,19 +8659,19 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8864,7 +8720,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8879,10 +8735,10 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8891,9 +8747,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8901,13 +8757,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -8916,26 +8772,22 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>40</v>
@@ -8953,13 +8805,11 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8977,13 +8827,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8992,21 +8842,21 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9017,10 +8867,10 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -9029,18 +8879,16 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -9052,7 +8900,7 @@
         <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>40</v>
@@ -9088,13 +8936,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -9103,21 +8951,21 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9125,32 +8973,30 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9163,7 +9009,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9199,13 +9045,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9214,21 +9060,21 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9239,10 +9085,10 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9251,16 +9097,18 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9308,13 +9156,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9323,21 +9171,21 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>238</v>
+        <v>327</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9345,31 +9193,31 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9419,28 +9267,28 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9448,7 +9296,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9557,7 +9405,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9627,16 +9475,16 @@
         <v>40</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>130</v>
@@ -9668,39 +9516,39 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9750,16 +9598,16 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
@@ -9777,9 +9625,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9790,29 +9638,27 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9837,13 +9683,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9861,13 +9707,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9879,7 +9725,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9888,9 +9734,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9898,32 +9744,30 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9972,7 +9816,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9990,7 +9834,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -10001,7 +9845,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10021,25 +9865,23 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10085,7 +9927,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10100,21 +9942,21 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10134,21 +9976,21 @@
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10196,7 +10038,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10211,21 +10053,21 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10233,10 +10075,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>52</v>
@@ -10245,16 +10087,16 @@
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10305,25 +10147,25 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10332,9 +10174,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10348,22 +10190,22 @@
         <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>320</v>
+        <v>122</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10414,7 +10256,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10432,7 +10274,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10441,13 +10283,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10457,29 +10299,27 @@
         <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10503,13 +10343,13 @@
         <v>40</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>40</v>
@@ -10527,7 +10367,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10542,13 +10382,13 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>332</v>
+        <v>125</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10556,38 +10396,40 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10636,13 +10478,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10654,7 +10496,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10663,23 +10505,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -10688,17 +10530,15 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10735,25 +10575,25 @@
         <v>40</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
@@ -10774,9 +10614,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10787,32 +10627,28 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>155</v>
+        <v>367</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -10848,23 +10684,25 @@
         <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>159</v>
+        <v>366</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
@@ -10873,10 +10711,10 @@
         <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10885,13 +10723,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10903,29 +10739,25 @@
         <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10949,13 +10781,13 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -10973,13 +10805,13 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
@@ -10988,10 +10820,10 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -11002,11 +10834,9 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>40</v>
       </c>
@@ -11015,7 +10845,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -11024,22 +10854,20 @@
         <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>158</v>
+        <v>376</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11064,13 +10892,13 @@
         <v>40</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>40</v>
@@ -11088,7 +10916,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>159</v>
+        <v>372</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11103,2890 +10931,20 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AB91" s="2"/>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM112" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM112">
+  <autoFilter ref="A1:AM86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13996,7 +10954,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="388">
   <si>
     <t>Path</t>
   </si>
@@ -982,6 +982,12 @@
     <t>preferred</t>
   </si>
   <si>
+    <t>Specific specialty associated with the agency</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -989,6 +995,33 @@
   </si>
   <si>
     <t>./Specialty</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding</t>
+  </si>
+  <si>
+    <t>Specialty codings for a role</t>
+  </si>
+  <si>
+    <t>snomedctSpecialty</t>
+  </si>
+  <si>
+    <t>SNOMED CT Practitioner Specialty</t>
+  </si>
+  <si>
+    <t>Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
+  </si>
+  <si>
+    <t>SNOMED CT Practitioner Role</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.text</t>
   </si>
   <si>
     <t>PractitionerRole.location</t>
@@ -1351,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3080,7 +3113,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -4527,7 +4560,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -6533,7 +6566,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -8807,9 +8840,11 @@
       <c r="W67" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="X67" s="2"/>
+      <c r="X67" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8842,21 +8877,21 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8867,25 +8902,25 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8936,13 +8971,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>309</v>
+        <v>124</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8954,22 +8989,22 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8979,7 +9014,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8988,15 +9023,17 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9033,19 +9070,19 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9060,10 +9097,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9072,9 +9109,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9088,7 +9125,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9097,17 +9134,19 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>323</v>
+        <v>155</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N70" t="s" s="2">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9144,19 +9183,17 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>322</v>
+        <v>160</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9171,10 +9208,10 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9183,11 +9220,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9199,27 +9238,29 @@
         <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>329</v>
+        <v>155</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9243,13 +9284,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9267,7 +9308,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>328</v>
+        <v>160</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9279,13 +9320,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9296,7 +9337,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9316,19 +9357,23 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9376,7 +9421,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9391,10 +9436,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9403,13 +9448,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9419,26 +9464,24 @@
         <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9487,7 +9530,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9505,22 +9548,22 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9530,26 +9573,24 @@
         <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>328</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>329</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9598,7 +9639,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9613,10 +9654,10 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9627,7 +9668,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9647,19 +9688,21 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9683,13 +9726,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9707,7 +9750,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9725,7 +9768,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9736,7 +9779,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9747,7 +9790,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>52</v>
@@ -9759,15 +9802,17 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9816,36 +9861,36 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9859,7 +9904,7 @@
         <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -9868,17 +9913,15 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9927,7 +9970,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>349</v>
+        <v>124</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9945,7 +9988,7 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9954,23 +9997,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
@@ -9979,16 +10022,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>350</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>356</v>
+        <v>127</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>353</v>
+        <v>100</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10038,13 +10081,13 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
@@ -10056,7 +10099,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10065,13 +10108,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10081,24 +10124,26 @@
         <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10147,7 +10192,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10159,13 +10204,13 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>334</v>
+        <v>94</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10174,9 +10219,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10187,10 +10232,10 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -10199,13 +10244,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>122</v>
+        <v>353</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>123</v>
+        <v>354</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10232,13 +10277,13 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10256,13 +10301,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>124</v>
+        <v>352</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10274,7 +10319,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10283,23 +10328,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -10308,17 +10353,15 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10367,13 +10410,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>130</v>
+        <v>357</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10385,7 +10428,7 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10394,41 +10437,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>97</v>
+        <v>361</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10478,13 +10521,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10496,7 +10539,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>345</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10507,7 +10550,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10515,7 +10558,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -10530,15 +10573,17 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>121</v>
+        <v>361</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10587,10 +10632,10 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>51</v>
@@ -10605,7 +10650,7 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10616,7 +10661,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10627,7 +10672,7 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>52</v>
@@ -10639,13 +10684,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10696,25 +10741,25 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10723,9 +10768,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10739,7 +10784,7 @@
         <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
@@ -10751,10 +10796,10 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>370</v>
+        <v>122</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>371</v>
+        <v>123</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10805,7 +10850,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>369</v>
+        <v>124</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10823,7 +10868,7 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10838,7 +10883,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10857,18 +10902,18 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>373</v>
+        <v>97</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -10916,7 +10961,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10943,8 +10988,557 @@
         <v>40</v>
       </c>
     </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM86">
+  <autoFilter ref="A1:AM91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10954,7 +11548,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
   <si>
     <t>Path</t>
   </si>
@@ -982,16 +982,6 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>Specific specialty associated with the agency</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -999,28 +989,6 @@
   </si>
   <si>
     <t>./Specialty</t>
-  </si>
-  <si>
-    <t>snomedctSpecialty</t>
-  </si>
-  <si>
-    <t>SNOMED-CT Practitioner Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Specialties for which this practitioner has capability to deliver in this role coded as SNOMED CT.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.coding</t>
-  </si>
-  <si>
-    <t>PractitionerRole.specialty.text</t>
   </si>
   <si>
     <t>PractitionerRole.location</t>
@@ -1383,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8779,7 +8747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>302</v>
       </c>
@@ -8839,24 +8807,24 @@
       <c r="W67" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="X67" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>302</v>
@@ -8874,25 +8842,23 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8904,7 +8870,7 @@
         <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8913,13 +8879,13 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8946,13 +8912,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -8970,7 +8936,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8985,21 +8951,21 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9010,10 +8976,10 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -9022,13 +8988,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9079,13 +9045,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9094,10 +9060,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9106,13 +9072,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9122,27 +9088,27 @@
         <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9178,19 +9144,19 @@
         <v>40</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9208,7 +9174,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>125</v>
+        <v>327</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9217,9 +9183,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9227,35 +9193,33 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9279,11 +9243,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9301,7 +9267,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9313,13 +9279,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>162</v>
+        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9330,7 +9296,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9350,23 +9316,19 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9414,7 +9376,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9429,10 +9391,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9441,13 +9403,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9457,24 +9419,26 @@
         <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9523,7 +9487,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9541,22 +9505,22 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9566,24 +9530,26 @@
         <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9632,7 +9598,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9647,10 +9613,10 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>331</v>
+        <v>94</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9661,7 +9627,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9681,21 +9647,19 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>333</v>
+        <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9719,13 +9683,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9743,7 +9707,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9761,7 +9725,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9772,7 +9736,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9783,7 +9747,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>52</v>
@@ -9795,17 +9759,15 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9854,25 +9816,25 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9881,9 +9843,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9897,7 +9859,7 @@
         <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -9906,15 +9868,17 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>122</v>
+        <v>351</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9963,7 +9927,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9981,7 +9945,7 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9990,23 +9954,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
@@ -10015,16 +9979,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10074,13 +10038,13 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
@@ -10092,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10101,13 +10065,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10117,26 +10081,24 @@
         <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10185,7 +10147,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10197,13 +10159,13 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10212,9 +10174,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10225,10 +10187,10 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -10237,13 +10199,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>352</v>
+        <v>122</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>353</v>
+        <v>123</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10270,13 +10232,13 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10294,13 +10256,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>351</v>
+        <v>124</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10312,7 +10274,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10321,23 +10283,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -10346,15 +10308,17 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10403,13 +10367,13 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>356</v>
+        <v>130</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
@@ -10421,7 +10385,7 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10430,41 +10394,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>361</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>363</v>
+        <v>100</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10514,13 +10478,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10532,7 +10496,7 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10543,7 +10507,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10551,7 +10515,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -10566,17 +10530,15 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>360</v>
+        <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10625,10 +10587,10 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>51</v>
@@ -10643,7 +10605,7 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10654,7 +10616,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10665,7 +10627,7 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>52</v>
@@ -10677,13 +10639,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>339</v>
+        <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10734,25 +10696,25 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10761,9 +10723,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10777,7 +10739,7 @@
         <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
@@ -10789,10 +10751,10 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>122</v>
+        <v>370</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>123</v>
+        <v>371</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10843,7 +10805,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10861,7 +10823,7 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10872,11 +10834,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10895,18 +10857,18 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>97</v>
+        <v>373</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -10954,7 +10916,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10981,557 +10943,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM91">
+  <autoFilter ref="A1:AM86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11541,7 +10954,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="376">
   <si>
     <t>Path</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>PractitionerRole.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>PractitionerRole.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>PractitionerRole.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -351,7 +351,7 @@
     <t>PractitionerRole.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -395,7 +395,7 @@
     <t>PractitionerRole.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -460,7 +460,7 @@
     <t>PractitionerRole.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>PractitionerRole.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Provider Number"/&gt;</t>
+    <t>Medicare Provider Number</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -570,10 +570,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-provider-number"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-provider-number</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -600,7 +600,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -618,7 +618,7 @@
     <t>PractitionerRole.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -643,7 +643,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -694,7 +694,7 @@
     <t>National provider at organisation identifer (NPI-O) type descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="NPIO"/&gt;</t>
+    <t>NPIO</t>
   </si>
   <si>
     <t>Namespace for national provider identifier (HPI-I) at organisation with national identifier (HPI-O)</t>
@@ -703,7 +703,7 @@
     <t>Namespace of national provider identifier (HPI-I) at organisation with national identifier (HPI-O).</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/npio"/&gt;</t>
+    <t>http://hl7.org.au/id/npio</t>
   </si>
   <si>
     <t>National provider identifier at organisation in the form HPI-I@HPI-O</t>
@@ -742,9 +742,6 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Employee Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -820,7 +817,7 @@
     <t>PractitionerRole.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -838,7 +835,7 @@
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>STF-7</t>
@@ -877,7 +874,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1)
 </t>
   </si>
   <si>
@@ -893,7 +890,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -994,7 +991,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -1016,7 +1013,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService]]}
+    <t xml:space="preserve">Reference(HealthcareService)
 </t>
   </si>
   <si>
@@ -1035,7 +1032,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1054,7 +1051,7 @@
     <t>PractitionerRole.availableTime</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1120,7 +1117,7 @@
     <t>PractitionerRole.availableTime.availableStartTime</t>
   </si>
   <si>
-    <t xml:space="preserve">time {[]} {[]}
+    <t xml:space="preserve">time
 </t>
   </si>
   <si>
@@ -1190,7 +1187,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Endpoint]]}
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -1255,67 +1252,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1351,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AM86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1374,7 +1371,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -6454,7 +6451,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>40</v>
@@ -6551,10 +6548,10 @@
         <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
@@ -6662,7 +6659,7 @@
         <v>121</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>220</v>
@@ -6882,7 +6879,7 @@
         <v>200</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>202</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7076,7 +7073,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7187,7 +7184,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7213,13 +7210,13 @@
         <v>121</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7269,16 +7266,16 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
@@ -7298,7 +7295,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7324,13 +7321,13 @@
         <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7380,25 +7377,25 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7409,7 +7406,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7435,13 +7432,13 @@
         <v>121</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7491,7 +7488,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7520,7 +7517,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7543,22 +7540,22 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -7604,7 +7601,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7619,21 +7616,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7659,14 +7656,14 @@
         <v>192</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7715,7 +7712,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7730,21 +7727,21 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7767,13 +7764,13 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7824,7 +7821,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7842,7 +7839,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7853,7 +7850,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7876,13 +7873,13 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7933,7 +7930,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7951,7 +7948,7 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7962,7 +7959,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7988,16 +7985,16 @@
         <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8022,14 +8019,14 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X60" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X60" t="s" s="2">
+      <c r="Y60" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8046,7 +8043,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8061,13 +8058,13 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AL60" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8075,7 +8072,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8184,7 +8181,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8295,7 +8292,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8367,7 +8364,7 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
@@ -8406,10 +8403,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
@@ -8434,10 +8431,10 @@
         <v>155</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>158</v>
@@ -8471,10 +8468,10 @@
         <v>136</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8521,10 +8518,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>40</v>
@@ -8549,10 +8546,10 @@
         <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>158</v>
@@ -8586,10 +8583,10 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8636,7 +8633,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8749,7 +8746,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8775,10 +8772,10 @@
         <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8805,11 +8802,11 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8827,7 +8824,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8842,13 +8839,13 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8856,7 +8853,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8879,13 +8876,13 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8936,7 +8933,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8954,18 +8951,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8988,13 +8985,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9045,7 +9042,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9060,10 +9057,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9074,7 +9071,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9097,17 +9094,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9156,7 +9153,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9174,7 +9171,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9185,7 +9182,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9208,16 +9205,16 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9267,7 +9264,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9279,13 +9276,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9296,7 +9293,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9405,7 +9402,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9516,11 +9513,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9545,7 +9542,7 @@
         <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>100</v>
@@ -9598,7 +9595,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9627,7 +9624,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9653,10 +9650,10 @@
         <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9686,11 +9683,11 @@
         <v>136</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9707,7 +9704,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9725,7 +9722,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9736,7 +9733,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9759,13 +9756,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9816,7 +9813,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9834,7 +9831,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9845,7 +9842,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9868,16 +9865,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9927,7 +9924,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9945,7 +9942,7 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9956,7 +9953,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9979,16 +9976,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10038,7 +10035,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10056,7 +10053,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10067,7 +10064,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10090,13 +10087,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10147,7 +10144,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10159,13 +10156,13 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10176,7 +10173,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10285,7 +10282,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10396,11 +10393,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10425,7 +10422,7 @@
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>100</v>
@@ -10478,7 +10475,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10507,7 +10504,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10533,10 +10530,10 @@
         <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10587,7 +10584,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -10616,7 +10613,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10642,10 +10639,10 @@
         <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10696,7 +10693,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10714,7 +10711,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10725,7 +10722,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10751,10 +10748,10 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10805,7 +10802,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10823,7 +10820,7 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10834,7 +10831,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10857,17 +10854,17 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10916,7 +10913,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
   <si>
     <t>Path</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>PractitionerRole.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>PractitionerRole.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>PractitionerRole.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -351,7 +351,7 @@
     <t>PractitionerRole.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -395,7 +395,7 @@
     <t>PractitionerRole.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -460,7 +460,7 @@
     <t>PractitionerRole.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>PractitionerRole.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>Medicare Provider Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Provider Number"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -570,10 +570,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/medicare-provider-number</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-provider-number"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -600,7 +600,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -618,7 +618,7 @@
     <t>PractitionerRole.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -643,7 +643,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -694,7 +694,7 @@
     <t>National provider at organisation identifer (NPI-O) type descriptive text.</t>
   </si>
   <si>
-    <t>NPIO</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="NPIO"/&gt;</t>
   </si>
   <si>
     <t>Namespace for national provider identifier (HPI-I) at organisation with national identifier (HPI-O)</t>
@@ -703,7 +703,7 @@
     <t>Namespace of national provider identifier (HPI-I) at organisation with national identifier (HPI-O).</t>
   </si>
   <si>
-    <t>http://hl7.org.au/id/npio</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/id/npio"/&gt;</t>
   </si>
   <si>
     <t>National provider identifier at organisation in the form HPI-I@HPI-O</t>
@@ -742,6 +742,9 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Employee Number"/&gt;</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -817,7 +820,7 @@
     <t>PractitionerRole.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -835,7 +838,7 @@
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>STF-7</t>
@@ -874,7 +877,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1]]}
 </t>
   </si>
   <si>
@@ -890,7 +893,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -991,7 +994,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
 </t>
   </si>
   <si>
@@ -1013,7 +1016,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService]]}
 </t>
   </si>
   <si>
@@ -1032,7 +1035,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1051,7 +1054,7 @@
     <t>PractitionerRole.availableTime</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1117,7 +1120,7 @@
     <t>PractitionerRole.availableTime.availableStartTime</t>
   </si>
   <si>
-    <t xml:space="preserve">time
+    <t xml:space="preserve">time {[]} {[]}
 </t>
   </si>
   <si>
@@ -1187,7 +1190,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Endpoint]]}
 </t>
   </si>
   <si>
@@ -1252,67 +1255,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1348,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM86"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1371,7 +1374,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -6451,7 +6454,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>40</v>
@@ -6548,10 +6551,10 @@
         <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
@@ -6659,7 +6662,7 @@
         <v>121</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>220</v>
@@ -6879,7 +6882,7 @@
         <v>200</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>202</v>
@@ -6964,7 +6967,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7073,7 +7076,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7184,7 +7187,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7210,13 +7213,13 @@
         <v>121</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7266,7 +7269,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7275,7 +7278,7 @@
         <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
@@ -7295,7 +7298,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7321,13 +7324,13 @@
         <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7377,7 +7380,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7395,7 +7398,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7406,7 +7409,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7432,13 +7435,13 @@
         <v>121</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7488,7 +7491,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7517,7 +7520,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7540,22 +7543,22 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -7601,7 +7604,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7616,21 +7619,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7656,14 +7659,14 @@
         <v>192</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7712,7 +7715,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7727,21 +7730,21 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7764,13 +7767,13 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7821,7 +7824,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7839,7 +7842,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7850,7 +7853,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7873,13 +7876,13 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7930,7 +7933,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7948,7 +7951,7 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7959,7 +7962,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7985,16 +7988,16 @@
         <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8019,13 +8022,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8043,7 +8046,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8058,13 +8061,13 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8072,7 +8075,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8181,7 +8184,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8292,7 +8295,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8364,7 +8367,7 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
@@ -8403,10 +8406,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
@@ -8431,10 +8434,10 @@
         <v>155</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>158</v>
@@ -8468,10 +8471,10 @@
         <v>136</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8518,10 +8521,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>40</v>
@@ -8546,10 +8549,10 @@
         <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>158</v>
@@ -8583,10 +8586,10 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8633,7 +8636,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8746,7 +8749,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8772,10 +8775,10 @@
         <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8802,11 +8805,11 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8824,7 +8827,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8839,13 +8842,13 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8853,7 +8856,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8876,13 +8879,13 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8933,7 +8936,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8951,18 +8954,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8985,13 +8988,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9042,7 +9045,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9057,10 +9060,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9071,7 +9074,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9094,17 +9097,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9153,7 +9156,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9171,7 +9174,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9182,7 +9185,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9205,16 +9208,16 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9264,7 +9267,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9276,13 +9279,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9402,7 +9405,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9513,11 +9516,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9542,7 +9545,7 @@
         <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>100</v>
@@ -9595,7 +9598,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9624,7 +9627,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9650,10 +9653,10 @@
         <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9683,10 +9686,10 @@
         <v>136</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9704,7 +9707,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9722,7 +9725,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9733,7 +9736,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9756,13 +9759,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9813,7 +9816,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9831,7 +9834,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9842,7 +9845,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9865,16 +9868,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9924,7 +9927,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9942,7 +9945,7 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9953,7 +9956,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9976,16 +9979,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10035,7 +10038,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10053,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10064,7 +10067,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10087,13 +10090,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10144,7 +10147,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10156,13 +10159,13 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10173,7 +10176,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10282,7 +10285,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10393,11 +10396,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10422,7 +10425,7 @@
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>100</v>
@@ -10475,7 +10478,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10504,7 +10507,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10530,10 +10533,10 @@
         <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10584,7 +10587,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -10613,7 +10616,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10639,10 +10642,10 @@
         <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10693,7 +10696,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10711,7 +10714,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10722,7 +10725,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10748,10 +10751,10 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10802,7 +10805,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10820,7 +10823,7 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10831,7 +10834,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10854,17 +10857,17 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10913,7 +10916,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
   <si>
     <t>Path</t>
   </si>
@@ -882,6 +882,10 @@
   </si>
   <si>
     <t>Practitioner that is able to provide the defined services for the organation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-dh-prarol-01:The practitioner shall at least have a reference or an identifier {reference.exists() or identifier.exists()}
+</t>
   </si>
   <si>
     <t>.player</t>
@@ -7833,13 +7837,13 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7850,7 +7854,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7873,13 +7877,13 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7930,7 +7934,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7948,7 +7952,7 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7959,7 +7963,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7985,16 +7989,16 @@
         <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8019,13 +8023,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8043,7 +8047,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8058,10 +8062,10 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>268</v>
@@ -8072,7 +8076,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8181,7 +8185,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8292,7 +8296,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8364,7 +8368,7 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
@@ -8403,10 +8407,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
@@ -8431,10 +8435,10 @@
         <v>155</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>158</v>
@@ -8468,10 +8472,10 @@
         <v>136</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8518,10 +8522,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>40</v>
@@ -8546,10 +8550,10 @@
         <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>158</v>
@@ -8583,10 +8587,10 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8633,7 +8637,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8746,7 +8750,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8772,10 +8776,10 @@
         <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8802,11 +8806,11 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8824,7 +8828,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8839,13 +8843,13 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8853,7 +8857,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8876,13 +8880,13 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8933,7 +8937,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8951,18 +8955,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8985,13 +8989,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9042,7 +9046,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9057,10 +9061,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9071,7 +9075,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9094,17 +9098,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9153,7 +9157,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9171,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9182,7 +9186,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9205,16 +9209,16 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9264,7 +9268,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9276,13 +9280,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9293,7 +9297,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9402,7 +9406,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9513,11 +9517,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9542,7 +9546,7 @@
         <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>100</v>
@@ -9595,7 +9599,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9624,7 +9628,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9650,10 +9654,10 @@
         <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9683,10 +9687,10 @@
         <v>136</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9704,7 +9708,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9722,7 +9726,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9733,7 +9737,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9759,10 +9763,10 @@
         <v>253</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9813,7 +9817,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9831,7 +9835,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9842,7 +9846,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9865,16 +9869,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9924,7 +9928,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9942,7 +9946,7 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9953,7 +9957,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9976,16 +9980,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10035,7 +10039,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10053,7 +10057,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10064,7 +10068,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10087,13 +10091,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10144,7 +10148,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10156,13 +10160,13 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10173,7 +10177,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10282,7 +10286,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10393,11 +10397,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10422,7 +10426,7 @@
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>100</v>
@@ -10475,7 +10479,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10504,7 +10508,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10530,10 +10534,10 @@
         <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10584,7 +10588,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -10613,7 +10617,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10639,10 +10643,10 @@
         <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10693,7 +10697,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10711,7 +10715,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10722,7 +10726,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10748,10 +10752,10 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10802,7 +10806,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10820,7 +10824,7 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10831,7 +10835,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10854,17 +10858,17 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10913,7 +10917,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="376">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-prarol-01:The practitioner reference shall at least have a reference or an identifier {practitioner.reference.exists() or practitioner.identifier.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -882,10 +882,6 @@
   </si>
   <si>
     <t>Practitioner that is able to provide the defined services for the organation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-dh-prarol-01:The practitioner shall at least have a reference or an identifier {reference.exists() or identifier.exists()}
-</t>
   </si>
   <si>
     <t>.player</t>
@@ -7837,13 +7833,13 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7854,7 +7850,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7877,13 +7873,13 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7934,7 +7930,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7952,7 +7948,7 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7963,7 +7959,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7989,16 +7985,16 @@
         <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8023,14 +8019,14 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X60" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X60" t="s" s="2">
+      <c r="Y60" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8047,7 +8043,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8062,10 +8058,10 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>268</v>
@@ -8076,7 +8072,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8185,7 +8181,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8296,7 +8292,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8368,7 +8364,7 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
@@ -8407,10 +8403,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
@@ -8435,10 +8431,10 @@
         <v>155</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>158</v>
@@ -8472,10 +8468,10 @@
         <v>136</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8522,10 +8518,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>40</v>
@@ -8550,10 +8546,10 @@
         <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>158</v>
@@ -8587,10 +8583,10 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8637,7 +8633,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8750,7 +8746,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8776,10 +8772,10 @@
         <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8806,11 +8802,11 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8828,7 +8824,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8843,13 +8839,13 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -8857,7 +8853,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8880,13 +8876,13 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8937,7 +8933,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8955,18 +8951,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8989,13 +8985,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9046,7 +9042,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9061,10 +9057,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9075,7 +9071,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9098,17 +9094,17 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9157,7 +9153,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9175,7 +9171,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9186,7 +9182,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9209,16 +9205,16 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9268,7 +9264,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9280,13 +9276,13 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9297,7 +9293,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9406,7 +9402,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9517,11 +9513,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9546,7 +9542,7 @@
         <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>100</v>
@@ -9599,7 +9595,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9628,7 +9624,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9654,10 +9650,10 @@
         <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9687,11 +9683,11 @@
         <v>136</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9708,7 +9704,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9726,7 +9722,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9737,7 +9733,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9763,10 +9759,10 @@
         <v>253</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9817,7 +9813,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9835,7 +9831,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9846,7 +9842,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9869,16 +9865,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9928,7 +9924,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9946,7 +9942,7 @@
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9957,7 +9953,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9980,16 +9976,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10039,7 +10035,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10057,7 +10053,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10068,7 +10064,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10091,13 +10087,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10148,7 +10144,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10160,13 +10156,13 @@
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10177,7 +10173,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10286,7 +10282,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10397,11 +10393,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10426,7 +10422,7 @@
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>100</v>
@@ -10479,7 +10475,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10508,7 +10504,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10534,10 +10530,10 @@
         <v>121</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10588,7 +10584,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -10617,7 +10613,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10643,10 +10639,10 @@
         <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10697,7 +10693,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10715,7 +10711,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10726,7 +10722,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10752,10 +10748,10 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10806,7 +10802,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10824,7 +10820,7 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10835,7 +10831,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10858,17 +10854,17 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10917,7 +10913,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-prarol-01:The practitioner reference shall at least have a reference or an identifier {practitioner.reference.exists() or practitioner.identifier.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-prarol-01:The practitioner shall at least have a reference or an identifier with at least a system and a value {practitioner.reference.exists() or practitioner.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-prarol-02:If present, an organisation shall at least have a reference, an identifier or a display {organization.exists() implies (organization.reference.exists() or organization.identifier.exists() or organization.display.exists())}inv-dh-prarol-03:If present, a location shall at least have a reference, an identifier or a display {location.exists() implies location.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-04:If present, a healthcare service shall at least have a reference, an identifier or a display {healthcareService.exists() implies healthcareService.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -955,6 +955,126 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/anzsco-1</t>
   </si>
   <si>
+    <t>PractitionerRole.code.coding.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://www.abs.gov.au/ausstats/abs@.nsf/mf/1220.0</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>SNOMEDPractitionerRoleCode</t>
   </si>
   <si>
@@ -962,6 +1082,9 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/practitioner-role-1</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>PractitionerRole.code.text</t>
@@ -1348,7 +1471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM86"/>
+  <dimension ref="A1:AM100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8518,11 +8641,9 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B65" t="s" s="2">
         <v>297</v>
       </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8540,23 +8661,19 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8580,13 +8697,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8604,13 +8721,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8619,10 +8736,10 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8633,18 +8750,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8653,23 +8770,21 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8705,25 +8820,25 @@
         <v>40</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8732,10 +8847,10 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8744,9 +8859,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8754,13 +8869,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -8769,22 +8884,26 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>40</v>
@@ -8802,11 +8921,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8824,13 +8945,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8839,19 +8960,19 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>308</v>
       </c>
@@ -8864,10 +8985,10 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8876,15 +8997,17 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -8933,13 +9056,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8948,19 +9071,19 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>315</v>
       </c>
@@ -8973,28 +9096,30 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J69" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9042,13 +9167,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9057,10 +9182,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9069,9 +9194,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9082,10 +9207,10 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9094,7 +9219,7 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>323</v>
@@ -9153,13 +9278,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9168,10 +9293,10 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9180,9 +9305,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9193,30 +9318,32 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9264,25 +9391,25 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9293,9 +9420,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9313,19 +9442,23 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>122</v>
+        <v>338</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9349,13 +9482,13 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>40</v>
@@ -9373,13 +9506,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9388,10 +9521,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9402,18 +9535,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9425,17 +9558,15 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9484,13 +9615,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9513,11 +9644,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>337</v>
+        <v>96</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9530,19 +9661,19 @@
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>338</v>
+        <v>127</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>100</v>
@@ -9583,19 +9714,19 @@
         <v>40</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9613,7 +9744,7 @@
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9622,9 +9753,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9632,37 +9763,41 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>40</v>
@@ -9680,13 +9815,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9704,13 +9839,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9719,10 +9854,10 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9731,9 +9866,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9747,24 +9882,26 @@
         <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9813,7 +9950,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9828,10 +9965,10 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9840,9 +9977,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9856,27 +9993,27 @@
         <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>349</v>
+        <v>70</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9924,7 +10061,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9939,10 +10076,10 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9951,9 +10088,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9967,27 +10104,27 @@
         <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>349</v>
+        <v>121</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10035,7 +10172,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10050,10 +10187,10 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -10062,9 +10199,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10075,28 +10212,32 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10144,25 +10285,25 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10173,7 +10314,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10193,19 +10334,23 @@
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>121</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10253,7 +10398,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10268,10 +10413,10 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10280,13 +10425,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10296,26 +10441,24 @@
         <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10340,13 +10483,11 @@
         <v>40</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="X81" s="2"/>
       <c r="Y81" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>40</v>
@@ -10364,7 +10505,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10379,25 +10520,25 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10407,26 +10548,24 @@
         <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10475,7 +10614,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10493,18 +10632,18 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>353</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10512,10 +10651,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>52</v>
@@ -10527,13 +10666,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>121</v>
+        <v>357</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10584,13 +10723,13 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
@@ -10599,10 +10738,10 @@
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10613,7 +10752,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10624,7 +10763,7 @@
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>52</v>
@@ -10633,19 +10772,21 @@
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -10693,13 +10834,13 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
@@ -10711,7 +10852,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10733,7 +10874,7 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>52</v>
@@ -10745,15 +10886,17 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -10808,19 +10951,19 @@
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10831,7 +10974,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10842,7 +10985,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10854,18 +10997,16 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>372</v>
+        <v>121</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>373</v>
+        <v>122</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>374</v>
+        <v>123</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -10913,13 +11054,13 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>371</v>
+        <v>124</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
@@ -10940,8 +11081,1548 @@
         <v>40</v>
       </c>
     </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM86">
+  <autoFilter ref="A1:AM100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10951,7 +12632,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
+++ b/output/SharedHealthSummary/practitionerrole-withpractitionerident-1.xlsx
@@ -573,7 +573,7 @@
     <t>http://ns.electronichealth.net.au/id/medicare-provider-number</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
